--- a/data/manual/not_confirmed_pregnant--spotcheck.xlsx
+++ b/data/manual/not_confirmed_pregnant--spotcheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/172086/Documents/GitHub/EMTALA_PREGNANCY/data/manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A60DD4-A1CA-1641-8A4C-D9D33CFDA529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3B3A4C-62B2-F046-9C5C-7495ED5856F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="19160" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="19400" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$M$136</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="794">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -8609,6 +8612,9 @@
   </si>
   <si>
     <t>it's a log keeping thing that definitely affected pregnant women</t>
+  </si>
+  <si>
+    <t>it's a signage policy thing that definitely affected pregnant women</t>
   </si>
 </sst>
 </file>
@@ -10372,8 +10378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10491,7 +10497,7 @@
       </c>
       <c r="T2">
         <f ca="1">RAND()</f>
-        <v>0.1881740049598255</v>
+        <v>0.42557453587318284</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -10548,7 +10554,7 @@
       </c>
       <c r="T3">
         <f ca="1">RAND()</f>
-        <v>0.25358322998574301</v>
+        <v>0.77591401172387919</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -10599,7 +10605,7 @@
       </c>
       <c r="T4">
         <f ca="1">RAND()</f>
-        <v>0.36618522229222084</v>
+        <v>0.6881700445409108</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -10650,7 +10656,7 @@
       </c>
       <c r="T5">
         <f ca="1">RAND()</f>
-        <v>5.8255742555244794E-2</v>
+        <v>0.92530501176470614</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -10707,7 +10713,7 @@
       </c>
       <c r="T6">
         <f ca="1">RAND()</f>
-        <v>0.29329003605159454</v>
+        <v>0.44612064168624121</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -10767,7 +10773,7 @@
       </c>
       <c r="T7">
         <f ca="1">RAND()</f>
-        <v>0.40508105515437776</v>
+        <v>0.7567895072005929</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -10818,7 +10824,7 @@
       </c>
       <c r="T8">
         <f ca="1">RAND()</f>
-        <v>0.38106537531369877</v>
+        <v>0.43963381985459427</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -10875,7 +10881,7 @@
       </c>
       <c r="T9">
         <f ca="1">RAND()</f>
-        <v>0.18759732820379638</v>
+        <v>0.80776014182264977</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -10926,7 +10932,7 @@
       </c>
       <c r="T10">
         <f ca="1">RAND()</f>
-        <v>0.6371947146913659</v>
+        <v>0.36771054298319039</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -10977,7 +10983,7 @@
       </c>
       <c r="T11">
         <f ca="1">RAND()</f>
-        <v>0.70057766851541126</v>
+        <v>0.90685435134914338</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -11028,7 +11034,7 @@
       </c>
       <c r="T12">
         <f ca="1">RAND()</f>
-        <v>1.0530981007895623E-2</v>
+        <v>0.59390904679020395</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -11079,7 +11085,7 @@
       </c>
       <c r="T13">
         <f ca="1">RAND()</f>
-        <v>0.48910884740466887</v>
+        <v>0.64835434647135748</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -11130,7 +11136,7 @@
       </c>
       <c r="T14">
         <f ca="1">RAND()</f>
-        <v>0.42336318784865901</v>
+        <v>0.72745634578183704</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -11190,7 +11196,7 @@
       </c>
       <c r="T15">
         <f ca="1">RAND()</f>
-        <v>0.87181803497192289</v>
+        <v>0.47974669979754259</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -11241,7 +11247,7 @@
       </c>
       <c r="T16">
         <f ca="1">RAND()</f>
-        <v>0.86472137442395902</v>
+        <v>0.90805725793667835</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -11301,7 +11307,7 @@
       </c>
       <c r="T17">
         <f ca="1">RAND()</f>
-        <v>4.8639991816726846E-3</v>
+        <v>0.81027341790257656</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -11352,7 +11358,7 @@
       </c>
       <c r="T18">
         <f ca="1">RAND()</f>
-        <v>0.3304318871162657</v>
+        <v>5.7265215624755839E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -11409,7 +11415,7 @@
       </c>
       <c r="T19">
         <f ca="1">RAND()</f>
-        <v>0.81422825074064253</v>
+        <v>0.43611477632484352</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -11469,7 +11475,7 @@
       </c>
       <c r="T20">
         <f ca="1">RAND()</f>
-        <v>0.45180118837328964</v>
+        <v>0.98596343815423582</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -11520,7 +11526,7 @@
       </c>
       <c r="T21">
         <f ca="1">RAND()</f>
-        <v>0.27648260152607518</v>
+        <v>0.42670450250615388</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -11571,7 +11577,7 @@
       </c>
       <c r="T22">
         <f ca="1">RAND()</f>
-        <v>0.99712885387681183</v>
+        <v>0.48438800015633332</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -11628,7 +11634,7 @@
       </c>
       <c r="T23">
         <f ca="1">RAND()</f>
-        <v>0.36071379034596829</v>
+        <v>0.85101661876769918</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -11688,171 +11694,171 @@
       </c>
       <c r="T24">
         <f ca="1">RAND()</f>
-        <v>0.6964641221264497</v>
+        <v>0.42739881070437047</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>10001</v>
+        <v>181304</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="J25">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N25" s="2">
-        <v>44410</v>
+        <v>42125</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="R25" t="s">
+        <v>38</v>
       </c>
       <c r="S25" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="T25">
         <f ca="1">RAND()</f>
-        <v>0.20462958515660501</v>
+        <v>0.91594793799633911</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>489</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
         <v>103</v>
       </c>
       <c r="F26">
-        <v>370149</v>
+        <v>10001</v>
       </c>
       <c r="G26" t="s">
-        <v>352</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>105</v>
       </c>
       <c r="I26" t="s">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="J26">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
         <v>107</v>
       </c>
       <c r="N26" s="2">
-        <v>41249</v>
+        <v>44410</v>
       </c>
       <c r="O26" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>356</v>
-      </c>
-      <c r="R26" t="s">
-        <v>29</v>
+        <v>109</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>79</v>
       </c>
       <c r="S26" t="s">
         <v>791</v>
       </c>
       <c r="T26">
         <f ca="1">RAND()</f>
-        <v>0.27441763362959259</v>
+        <v>0.17032599640712609</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>251</v>
+        <v>489</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>350</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="E27" t="s">
         <v>103</v>
       </c>
       <c r="F27">
-        <v>100077</v>
+        <v>370149</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>353</v>
       </c>
       <c r="I27" t="s">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="J27">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M27" t="s">
         <v>107</v>
       </c>
       <c r="N27" s="2">
-        <v>41556</v>
+        <v>41249</v>
       </c>
       <c r="O27" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="R27" t="s">
         <v>29</v>
@@ -11862,90 +11868,96 @@
       </c>
       <c r="T27">
         <f ca="1">RAND()</f>
-        <v>0.41738509820498848</v>
+        <v>0.44077118411387572</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F28">
-        <v>241381</v>
+        <v>100077</v>
       </c>
       <c r="G28" t="s">
-        <v>445</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
-        <v>446</v>
+        <v>175</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="J28">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="L28" t="s">
-        <v>426</v>
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>107</v>
       </c>
       <c r="N28" s="2">
-        <v>43810</v>
+        <v>41556</v>
       </c>
       <c r="O28" t="s">
-        <v>447</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s">
-        <v>448</v>
+        <v>177</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
       </c>
       <c r="S28" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="T28">
         <f ca="1">RAND()</f>
-        <v>0.3678957920445779</v>
-      </c>
-      <c r="U28" t="s">
-        <v>790</v>
+        <v>0.85004505482990356</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>660</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>776</v>
+        <v>443</v>
       </c>
       <c r="C29" t="s">
         <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F29">
-        <v>520048</v>
+        <v>241381</v>
       </c>
       <c r="G29" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="H29" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="I29" t="s">
-        <v>402</v>
+        <v>270</v>
       </c>
       <c r="J29">
         <v>2402</v>
@@ -11954,20 +11966,20 @@
         <v>426</v>
       </c>
       <c r="N29" s="2">
-        <v>42509</v>
+        <v>43810</v>
       </c>
       <c r="O29" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="P29" t="s">
-        <v>777</v>
+        <v>448</v>
       </c>
       <c r="S29" t="s">
         <v>788</v>
       </c>
       <c r="T29">
         <f ca="1">RAND()</f>
-        <v>7.4003977728122838E-2</v>
+        <v>0.79688390237054396</v>
       </c>
       <c r="U29" t="s">
         <v>790</v>
@@ -11975,437 +11987,430 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>523</v>
+        <v>660</v>
       </c>
       <c r="B30" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="C30" t="s">
         <v>412</v>
       </c>
       <c r="D30" t="s">
-        <v>681</v>
+        <v>399</v>
       </c>
       <c r="E30" t="s">
         <v>103</v>
       </c>
       <c r="F30">
-        <v>380061</v>
+        <v>520048</v>
       </c>
       <c r="G30" t="s">
-        <v>682</v>
+        <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>683</v>
+        <v>401</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="J30">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="L30" t="s">
-        <v>52</v>
+        <v>426</v>
       </c>
       <c r="N30" s="2">
-        <v>43299</v>
+        <v>42509</v>
       </c>
       <c r="O30" t="s">
-        <v>684</v>
+        <v>403</v>
       </c>
       <c r="P30" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="S30" t="s">
         <v>788</v>
       </c>
       <c r="T30">
         <f ca="1">RAND()</f>
-        <v>0.6249340103299158</v>
+        <v>0.67606163870990599</v>
       </c>
       <c r="U30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="B31" t="s">
-        <v>491</v>
+        <v>686</v>
       </c>
       <c r="C31" t="s">
         <v>412</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>681</v>
       </c>
       <c r="E31" t="s">
         <v>103</v>
       </c>
       <c r="F31">
-        <v>50069</v>
+        <v>380061</v>
       </c>
       <c r="G31" t="s">
-        <v>493</v>
+        <v>682</v>
       </c>
       <c r="H31" t="s">
-        <v>494</v>
+        <v>683</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="J31">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="L31" t="s">
-        <v>426</v>
+        <v>52</v>
       </c>
       <c r="N31" s="2">
-        <v>40857</v>
+        <v>43299</v>
       </c>
       <c r="O31" t="s">
-        <v>495</v>
+        <v>684</v>
       </c>
       <c r="P31" t="s">
-        <v>496</v>
+        <v>687</v>
       </c>
       <c r="S31" t="s">
         <v>788</v>
       </c>
       <c r="T31">
         <f ca="1">RAND()</f>
-        <v>5.6232330552787202E-2</v>
+        <v>0.79819075407431328</v>
       </c>
       <c r="U31" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>517</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>674</v>
+        <v>491</v>
       </c>
       <c r="C32" t="s">
         <v>412</v>
       </c>
       <c r="D32" t="s">
-        <v>675</v>
+        <v>492</v>
       </c>
       <c r="E32" t="s">
         <v>103</v>
       </c>
       <c r="F32">
-        <v>380040</v>
+        <v>50069</v>
       </c>
       <c r="G32" t="s">
-        <v>676</v>
+        <v>493</v>
       </c>
       <c r="H32" t="s">
-        <v>677</v>
+        <v>494</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J32">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="L32" t="s">
-        <v>52</v>
+        <v>426</v>
       </c>
       <c r="N32" s="2">
-        <v>43503</v>
+        <v>40857</v>
       </c>
       <c r="O32" t="s">
-        <v>678</v>
+        <v>495</v>
       </c>
       <c r="P32" t="s">
-        <v>679</v>
+        <v>496</v>
       </c>
       <c r="S32" t="s">
         <v>788</v>
       </c>
       <c r="T32">
         <f ca="1">RAND()</f>
-        <v>0.54796013611747307</v>
+        <v>0.26018545093716383</v>
       </c>
       <c r="U32" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>36</v>
+        <v>517</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>674</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>675</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F33">
-        <v>161357</v>
+        <v>380040</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>676</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>677</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J33">
-        <v>2400</v>
+        <v>2405</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N33" s="2">
-        <v>42052</v>
+        <v>43503</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>678</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>29</v>
-      </c>
-      <c r="S33" t="e">
-        <f>VLOOKUP(B33,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
-        <v>#N/A</v>
+        <v>679</v>
+      </c>
+      <c r="S33" t="s">
+        <v>788</v>
       </c>
       <c r="T33">
         <f ca="1">RAND()</f>
-        <v>0.70466177058518153</v>
+        <v>0.72267959744098942</v>
+      </c>
+      <c r="U33" t="s">
+        <v>792</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>560</v>
+        <v>447</v>
       </c>
       <c r="B34" t="s">
-        <v>716</v>
+        <v>626</v>
       </c>
       <c r="C34" t="s">
         <v>412</v>
       </c>
       <c r="D34" t="s">
-        <v>717</v>
+        <v>627</v>
       </c>
       <c r="E34" t="s">
         <v>103</v>
       </c>
       <c r="F34">
-        <v>390164</v>
+        <v>330307</v>
       </c>
       <c r="G34" t="s">
-        <v>718</v>
+        <v>628</v>
       </c>
       <c r="H34" t="s">
-        <v>719</v>
+        <v>629</v>
       </c>
       <c r="I34" t="s">
-        <v>697</v>
+        <v>304</v>
       </c>
       <c r="J34">
-        <v>2400</v>
+        <v>2405</v>
       </c>
       <c r="L34" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N34" s="2">
-        <v>43476</v>
+        <v>42774</v>
       </c>
       <c r="O34" t="s">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="P34" t="s">
-        <v>721</v>
-      </c>
-      <c r="S34" t="e">
-        <f>VLOOKUP(B34,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
-        <v>#N/A</v>
+        <v>631</v>
+      </c>
+      <c r="S34" t="s">
+        <v>788</v>
       </c>
       <c r="T34">
         <f ca="1">RAND()</f>
-        <v>0.9544526582407673</v>
+        <v>0.55808728831003873</v>
+      </c>
+      <c r="U34" t="s">
+        <v>792</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>48</v>
+        <v>522</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>680</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>681</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F35">
-        <v>181304</v>
+        <v>380061</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>682</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>683</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J35">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="L35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" t="s">
-        <v>26</v>
+        <v>426</v>
       </c>
       <c r="N35" s="2">
-        <v>42125</v>
+        <v>43299</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>684</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>38</v>
-      </c>
-      <c r="R35" t="s">
-        <v>38</v>
-      </c>
-      <c r="S35" t="e">
-        <f>VLOOKUP(B35,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
-        <v>#N/A</v>
+        <v>685</v>
+      </c>
+      <c r="S35" t="s">
+        <v>788</v>
       </c>
       <c r="T35">
         <f ca="1">RAND()</f>
-        <v>0.36683415179627965</v>
+        <v>8.3350219139709969E-2</v>
+      </c>
+      <c r="U35" t="s">
+        <v>793</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>506</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F36">
-        <v>380075</v>
+        <v>61327</v>
       </c>
       <c r="G36" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="H36" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="J36">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="L36" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" t="s">
-        <v>107</v>
+        <v>426</v>
       </c>
       <c r="N36" s="2">
-        <v>44221</v>
+        <v>43398</v>
       </c>
       <c r="O36" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="P36" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>38</v>
-      </c>
-      <c r="S36" t="e">
-        <f>VLOOKUP(B36,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
-        <v>#N/A</v>
+        <v>428</v>
+      </c>
+      <c r="S36" t="s">
+        <v>788</v>
       </c>
       <c r="T36">
         <f ca="1">RAND()</f>
-        <v>0.82998445149162814</v>
+        <v>0.2997387183702136</v>
+      </c>
+      <c r="U36" t="s">
+        <v>790</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>653</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>770</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>771</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F37">
-        <v>500053</v>
+        <v>161357</v>
       </c>
       <c r="G37" t="s">
-        <v>772</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>773</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="J37">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
       </c>
       <c r="N37" s="2">
-        <v>43448</v>
+        <v>42052</v>
       </c>
       <c r="O37" t="s">
-        <v>774</v>
+        <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>775</v>
+        <v>46</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>29</v>
       </c>
       <c r="S37" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12413,36 +12418,36 @@
       </c>
       <c r="T37">
         <f ca="1">RAND()</f>
-        <v>0.25275292013051798</v>
+        <v>0.40489066093980874</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>716</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>717</v>
       </c>
       <c r="E38" t="s">
         <v>103</v>
       </c>
       <c r="F38">
-        <v>370215</v>
+        <v>390164</v>
       </c>
       <c r="G38" t="s">
-        <v>363</v>
+        <v>718</v>
       </c>
       <c r="H38" t="s">
-        <v>364</v>
+        <v>719</v>
       </c>
       <c r="I38" t="s">
-        <v>354</v>
+        <v>697</v>
       </c>
       <c r="J38">
         <v>2400</v>
@@ -12450,20 +12455,14 @@
       <c r="L38" t="s">
         <v>44</v>
       </c>
-      <c r="M38" t="s">
-        <v>107</v>
-      </c>
       <c r="N38" s="2">
-        <v>41093</v>
+        <v>43476</v>
       </c>
       <c r="O38" t="s">
-        <v>365</v>
+        <v>720</v>
       </c>
       <c r="P38" t="s">
-        <v>366</v>
-      </c>
-      <c r="R38" t="s">
-        <v>29</v>
+        <v>721</v>
       </c>
       <c r="S38" t="e">
         <f>VLOOKUP(B38,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12471,36 +12470,36 @@
       </c>
       <c r="T38">
         <f ca="1">RAND()</f>
-        <v>0.66271936008732146</v>
+        <v>3.7732293989088839E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>337</v>
+        <v>506</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>373</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>374</v>
       </c>
       <c r="E39" t="s">
         <v>103</v>
       </c>
       <c r="F39">
-        <v>180067</v>
+        <v>380075</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J39">
         <v>2406</v>
@@ -12512,18 +12511,15 @@
         <v>107</v>
       </c>
       <c r="N39" s="2">
-        <v>41305</v>
+        <v>44221</v>
       </c>
       <c r="O39" t="s">
-        <v>262</v>
+        <v>376</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="Q39" t="s">
-        <v>38</v>
-      </c>
-      <c r="R39" t="s">
         <v>38</v>
       </c>
       <c r="S39" t="e">
@@ -12532,36 +12528,36 @@
       </c>
       <c r="T39">
         <f ca="1">RAND()</f>
-        <v>0.97784752418330645</v>
+        <v>0.66452651647731076</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>450</v>
+        <v>653</v>
       </c>
       <c r="B40" t="s">
-        <v>632</v>
+        <v>770</v>
       </c>
       <c r="C40" t="s">
         <v>412</v>
       </c>
       <c r="D40" t="s">
-        <v>633</v>
+        <v>771</v>
       </c>
       <c r="E40" t="s">
         <v>103</v>
       </c>
       <c r="F40">
-        <v>330399</v>
+        <v>500053</v>
       </c>
       <c r="G40" t="s">
-        <v>634</v>
+        <v>772</v>
       </c>
       <c r="H40" t="s">
-        <v>635</v>
+        <v>773</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="J40">
         <v>2406</v>
@@ -12570,13 +12566,13 @@
         <v>25</v>
       </c>
       <c r="N40" s="2">
-        <v>41669</v>
+        <v>43448</v>
       </c>
       <c r="O40" t="s">
-        <v>636</v>
+        <v>774</v>
       </c>
       <c r="P40" t="s">
-        <v>637</v>
+        <v>775</v>
       </c>
       <c r="S40" t="e">
         <f>VLOOKUP(B40,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12584,51 +12580,57 @@
       </c>
       <c r="T40">
         <f ca="1">RAND()</f>
-        <v>0.83453855063493831</v>
+        <v>0.80207300967726436</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>623</v>
+        <v>492</v>
       </c>
       <c r="B41" t="s">
-        <v>752</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>753</v>
+        <v>362</v>
       </c>
       <c r="E41" t="s">
         <v>103</v>
       </c>
       <c r="F41">
-        <v>450051</v>
+        <v>370215</v>
       </c>
       <c r="G41" t="s">
-        <v>754</v>
+        <v>363</v>
       </c>
       <c r="H41" t="s">
-        <v>755</v>
+        <v>364</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="J41">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="L41" t="s">
-        <v>305</v>
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>107</v>
       </c>
       <c r="N41" s="2">
-        <v>40759</v>
+        <v>41093</v>
       </c>
       <c r="O41" t="s">
-        <v>756</v>
+        <v>365</v>
       </c>
       <c r="P41" t="s">
-        <v>757</v>
+        <v>366</v>
+      </c>
+      <c r="R41" t="s">
+        <v>29</v>
       </c>
       <c r="S41" t="e">
         <f>VLOOKUP(B41,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12636,60 +12638,60 @@
       </c>
       <c r="T41">
         <f ca="1">RAND()</f>
-        <v>0.1735443436148163</v>
+        <v>0.98038648260403249</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
         <v>103</v>
       </c>
       <c r="F42">
-        <v>370149</v>
+        <v>180067</v>
       </c>
       <c r="G42" t="s">
-        <v>352</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="I42" t="s">
-        <v>354</v>
+        <v>51</v>
       </c>
       <c r="J42">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="L42" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M42" t="s">
         <v>107</v>
       </c>
       <c r="N42" s="2">
-        <v>41249</v>
+        <v>41305</v>
       </c>
       <c r="O42" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="P42" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="Q42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="R42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="S42" t="e">
         <f>VLOOKUP(B42,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12697,36 +12699,36 @@
       </c>
       <c r="T42">
         <f ca="1">RAND()</f>
-        <v>0.52105191083597435</v>
+        <v>0.37119905380253548</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="B43" t="s">
-        <v>529</v>
+        <v>632</v>
       </c>
       <c r="C43" t="s">
         <v>412</v>
       </c>
       <c r="D43" t="s">
-        <v>530</v>
+        <v>633</v>
       </c>
       <c r="E43" t="s">
         <v>103</v>
       </c>
       <c r="F43">
-        <v>100275</v>
+        <v>330399</v>
       </c>
       <c r="G43" t="s">
-        <v>531</v>
+        <v>634</v>
       </c>
       <c r="H43" t="s">
-        <v>532</v>
+        <v>635</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="J43">
         <v>2406</v>
@@ -12735,13 +12737,13 @@
         <v>25</v>
       </c>
       <c r="N43" s="2">
-        <v>44622</v>
+        <v>41669</v>
       </c>
       <c r="O43" t="s">
-        <v>533</v>
+        <v>636</v>
       </c>
       <c r="P43" t="s">
-        <v>534</v>
+        <v>637</v>
       </c>
       <c r="S43" t="e">
         <f>VLOOKUP(B43,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12749,51 +12751,51 @@
       </c>
       <c r="T43">
         <f ca="1">RAND()</f>
-        <v>0.92209256589591504</v>
+        <v>0.11873716204863305</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>372</v>
+        <v>623</v>
       </c>
       <c r="B44" t="s">
-        <v>608</v>
+        <v>752</v>
       </c>
       <c r="C44" t="s">
         <v>412</v>
       </c>
       <c r="D44" t="s">
-        <v>609</v>
+        <v>753</v>
       </c>
       <c r="E44" t="s">
         <v>103</v>
       </c>
       <c r="F44">
-        <v>250019</v>
+        <v>450051</v>
       </c>
       <c r="G44" t="s">
-        <v>610</v>
+        <v>754</v>
       </c>
       <c r="H44" t="s">
-        <v>611</v>
+        <v>755</v>
       </c>
       <c r="I44" t="s">
-        <v>453</v>
+        <v>84</v>
       </c>
       <c r="J44">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="L44" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="N44" s="2">
-        <v>43224</v>
+        <v>40759</v>
       </c>
       <c r="O44" t="s">
-        <v>612</v>
+        <v>756</v>
       </c>
       <c r="P44" t="s">
-        <v>613</v>
+        <v>757</v>
       </c>
       <c r="S44" t="e">
         <f>VLOOKUP(B44,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12801,51 +12803,60 @@
       </c>
       <c r="T44">
         <f ca="1">RAND()</f>
-        <v>0.72504419803930042</v>
+        <v>0.5175155789516559</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>283</v>
+        <v>490</v>
       </c>
       <c r="B45" t="s">
-        <v>564</v>
+        <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>565</v>
+        <v>351</v>
       </c>
       <c r="E45" t="s">
         <v>103</v>
       </c>
       <c r="F45">
-        <v>110039</v>
+        <v>370149</v>
       </c>
       <c r="G45" t="s">
-        <v>566</v>
+        <v>352</v>
       </c>
       <c r="H45" t="s">
-        <v>567</v>
+        <v>353</v>
       </c>
       <c r="I45" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="J45">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L45" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="M45" t="s">
+        <v>107</v>
       </c>
       <c r="N45" s="2">
-        <v>42822</v>
+        <v>41249</v>
       </c>
       <c r="O45" t="s">
-        <v>568</v>
+        <v>355</v>
       </c>
       <c r="P45" t="s">
-        <v>569</v>
+        <v>358</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>29</v>
+      </c>
+      <c r="R45" t="s">
+        <v>29</v>
       </c>
       <c r="S45" t="e">
         <f>VLOOKUP(B45,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12853,36 +12864,36 @@
       </c>
       <c r="T45">
         <f ca="1">RAND()</f>
-        <v>0.18932873635283864</v>
+        <v>0.34194536168607137</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>462</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>647</v>
+        <v>529</v>
       </c>
       <c r="C46" t="s">
         <v>412</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
+        <v>530</v>
       </c>
       <c r="E46" t="s">
         <v>103</v>
       </c>
       <c r="F46">
-        <v>340028</v>
+        <v>100275</v>
       </c>
       <c r="G46" t="s">
-        <v>316</v>
+        <v>531</v>
       </c>
       <c r="H46" t="s">
-        <v>317</v>
+        <v>532</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>2406</v>
@@ -12891,13 +12902,13 @@
         <v>25</v>
       </c>
       <c r="N46" s="2">
-        <v>40864</v>
+        <v>44622</v>
       </c>
       <c r="O46" t="s">
-        <v>648</v>
+        <v>533</v>
       </c>
       <c r="P46" t="s">
-        <v>649</v>
+        <v>534</v>
       </c>
       <c r="S46" t="e">
         <f>VLOOKUP(B46,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12905,51 +12916,51 @@
       </c>
       <c r="T46">
         <f ca="1">RAND()</f>
-        <v>0.51704213636141472</v>
+        <v>0.46065089756805944</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C47" t="s">
         <v>412</v>
       </c>
       <c r="D47" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="E47" t="s">
         <v>103</v>
       </c>
       <c r="F47">
-        <v>140258</v>
+        <v>250019</v>
       </c>
       <c r="G47" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="H47" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="I47" t="s">
-        <v>584</v>
+        <v>453</v>
       </c>
       <c r="J47">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="L47" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N47" s="2">
-        <v>42223</v>
+        <v>43224</v>
       </c>
       <c r="O47" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="P47" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="S47" t="e">
         <f>VLOOKUP(B47,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -12957,36 +12968,36 @@
       </c>
       <c r="T47">
         <f ca="1">RAND()</f>
-        <v>0.39586865620087719</v>
+        <v>0.44844621111439253</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>463</v>
+        <v>564</v>
       </c>
       <c r="C48" t="s">
         <v>412</v>
       </c>
       <c r="D48" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F48">
-        <v>491303</v>
+        <v>110039</v>
       </c>
       <c r="G48" t="s">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="H48" t="s">
-        <v>466</v>
+        <v>567</v>
       </c>
       <c r="I48" t="s">
-        <v>467</v>
+        <v>188</v>
       </c>
       <c r="J48">
         <v>2406</v>
@@ -12995,13 +13006,13 @@
         <v>25</v>
       </c>
       <c r="N48" s="2">
-        <v>41859</v>
+        <v>42822</v>
       </c>
       <c r="O48" t="s">
-        <v>468</v>
+        <v>568</v>
       </c>
       <c r="P48" t="s">
-        <v>469</v>
+        <v>569</v>
       </c>
       <c r="S48" t="e">
         <f>VLOOKUP(B48,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13009,57 +13020,51 @@
       </c>
       <c r="T48">
         <f ca="1">RAND()</f>
-        <v>0.67571023794440366</v>
+        <v>0.53190018340737699</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>305</v>
+        <v>462</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>647</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="E49" t="s">
         <v>103</v>
       </c>
       <c r="F49">
-        <v>150101</v>
+        <v>340028</v>
       </c>
       <c r="G49" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="H49" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="I49" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J49">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="L49" t="s">
-        <v>98</v>
-      </c>
-      <c r="M49" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="N49" s="2">
-        <v>43712</v>
+        <v>40864</v>
       </c>
       <c r="O49" t="s">
-        <v>227</v>
+        <v>648</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>197</v>
+        <v>649</v>
       </c>
       <c r="S49" t="e">
         <f>VLOOKUP(B49,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13067,36 +13072,36 @@
       </c>
       <c r="T49">
         <f ca="1">RAND()</f>
-        <v>0.8036863406240482</v>
+        <v>0.8924142850516984</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s">
-        <v>456</v>
+        <v>595</v>
       </c>
       <c r="C50" t="s">
         <v>412</v>
       </c>
       <c r="D50" t="s">
-        <v>457</v>
+        <v>596</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F50">
-        <v>471307</v>
+        <v>140258</v>
       </c>
       <c r="G50" t="s">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="H50" t="s">
-        <v>459</v>
+        <v>598</v>
       </c>
       <c r="I50" t="s">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="J50">
         <v>2406</v>
@@ -13105,13 +13110,13 @@
         <v>25</v>
       </c>
       <c r="N50" s="2">
-        <v>43843</v>
+        <v>42223</v>
       </c>
       <c r="O50" t="s">
-        <v>461</v>
+        <v>599</v>
       </c>
       <c r="P50" t="s">
-        <v>462</v>
+        <v>600</v>
       </c>
       <c r="S50" t="e">
         <f>VLOOKUP(B50,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13119,36 +13124,36 @@
       </c>
       <c r="T50">
         <f ca="1">RAND()</f>
-        <v>0.6511644006166073</v>
+        <v>0.7529735674619169</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>463</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>464</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F51">
-        <v>110007</v>
+        <v>491303</v>
       </c>
       <c r="G51" t="s">
-        <v>193</v>
+        <v>465</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>466</v>
       </c>
       <c r="I51" t="s">
-        <v>188</v>
+        <v>467</v>
       </c>
       <c r="J51">
         <v>2406</v>
@@ -13156,20 +13161,14 @@
       <c r="L51" t="s">
         <v>25</v>
       </c>
-      <c r="M51" t="s">
-        <v>107</v>
-      </c>
       <c r="N51" s="2">
-        <v>43371</v>
+        <v>41859</v>
       </c>
       <c r="O51" t="s">
-        <v>195</v>
+        <v>468</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="S51" t="e">
         <f>VLOOKUP(B51,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13177,51 +13176,57 @@
       </c>
       <c r="T51">
         <f ca="1">RAND()</f>
-        <v>1.7730503060952141E-2</v>
+        <v>0.94901352333916444</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s">
-        <v>614</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>615</v>
+        <v>223</v>
       </c>
       <c r="E52" t="s">
         <v>103</v>
       </c>
       <c r="F52">
-        <v>260096</v>
+        <v>150101</v>
       </c>
       <c r="G52" t="s">
-        <v>616</v>
+        <v>224</v>
       </c>
       <c r="H52" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="I52" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="J52">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="L52" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="M52" t="s">
+        <v>107</v>
       </c>
       <c r="N52" s="2">
-        <v>42893</v>
+        <v>43712</v>
       </c>
       <c r="O52" t="s">
-        <v>618</v>
+        <v>227</v>
       </c>
       <c r="P52" t="s">
-        <v>619</v>
+        <v>228</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>197</v>
       </c>
       <c r="S52" t="e">
         <f>VLOOKUP(B52,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13229,51 +13234,51 @@
       </c>
       <c r="T52">
         <f ca="1">RAND()</f>
-        <v>0.82741868929769358</v>
+        <v>0.73640792946321532</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>280</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="C53" t="s">
         <v>412</v>
       </c>
       <c r="D53" t="s">
-        <v>550</v>
+        <v>457</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F53">
-        <v>110031</v>
+        <v>471307</v>
       </c>
       <c r="G53" t="s">
-        <v>551</v>
+        <v>458</v>
       </c>
       <c r="H53" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="I53" t="s">
-        <v>188</v>
+        <v>460</v>
       </c>
       <c r="J53">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="L53" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N53" s="2">
-        <v>43334</v>
+        <v>43843</v>
       </c>
       <c r="O53" t="s">
-        <v>553</v>
+        <v>461</v>
       </c>
       <c r="P53" t="s">
-        <v>554</v>
+        <v>462</v>
       </c>
       <c r="S53" t="e">
         <f>VLOOKUP(B53,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13281,60 +13286,57 @@
       </c>
       <c r="T53">
         <f ca="1">RAND()</f>
-        <v>0.15511781788115375</v>
+        <v>0.86872010325187754</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>445</v>
+        <v>275</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
         <v>103</v>
       </c>
       <c r="F54">
-        <v>340050</v>
+        <v>110007</v>
       </c>
       <c r="G54" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="H54" t="s">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="J54">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L54" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M54" t="s">
         <v>107</v>
       </c>
       <c r="N54" s="2">
-        <v>43412</v>
+        <v>43371</v>
       </c>
       <c r="O54" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="P54" t="s">
-        <v>331</v>
+        <v>196</v>
       </c>
       <c r="Q54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R54" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="S54" t="e">
         <f>VLOOKUP(B54,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13342,60 +13344,51 @@
       </c>
       <c r="T54">
         <f ca="1">RAND()</f>
-        <v>0.13098619828105318</v>
+        <v>0.31253138762274113</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s">
-        <v>338</v>
+        <v>614</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D55" t="s">
-        <v>339</v>
+        <v>615</v>
       </c>
       <c r="E55" t="s">
         <v>103</v>
       </c>
       <c r="F55">
-        <v>340147</v>
+        <v>260096</v>
       </c>
       <c r="G55" t="s">
-        <v>340</v>
+        <v>616</v>
       </c>
       <c r="H55" t="s">
-        <v>341</v>
+        <v>617</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="J55">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L55" t="s">
-        <v>44</v>
-      </c>
-      <c r="M55" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="N55" s="2">
-        <v>42963</v>
+        <v>42893</v>
       </c>
       <c r="O55" t="s">
-        <v>342</v>
+        <v>618</v>
       </c>
       <c r="P55" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>29</v>
-      </c>
-      <c r="R55" t="s">
-        <v>29</v>
+        <v>619</v>
       </c>
       <c r="S55" t="e">
         <f>VLOOKUP(B55,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13403,51 +13396,51 @@
       </c>
       <c r="T55">
         <f ca="1">RAND()</f>
-        <v>0.58157499529518464</v>
+        <v>8.1431691199040368E-2</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="C56" t="s">
         <v>412</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F56">
-        <v>501339</v>
+        <v>110031</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>551</v>
       </c>
       <c r="H56" t="s">
-        <v>97</v>
+        <v>552</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="J56">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="L56" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N56" s="2">
-        <v>43154</v>
+        <v>43334</v>
       </c>
       <c r="O56" t="s">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="P56" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="S56" t="e">
         <f>VLOOKUP(B56,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13455,36 +13448,36 @@
       </c>
       <c r="T56">
         <f ca="1">RAND()</f>
-        <v>0.41835894731181811</v>
+        <v>0.85360034844819244</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F57">
-        <v>281344</v>
+        <v>340050</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="H57" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
       <c r="I57" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J57">
         <v>2400</v>
@@ -13493,19 +13486,22 @@
         <v>44</v>
       </c>
       <c r="M57" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="N57" s="2">
-        <v>42985</v>
+        <v>43412</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
       <c r="P57" t="s">
-        <v>63</v>
+        <v>331</v>
       </c>
       <c r="Q57" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="R57" t="s">
+        <v>29</v>
       </c>
       <c r="S57" t="e">
         <f>VLOOKUP(B57,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13513,36 +13509,36 @@
       </c>
       <c r="T57">
         <f ca="1">RAND()</f>
-        <v>0.46810089988993275</v>
+        <v>1.6356110315480121E-2</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>242</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="E58" t="s">
         <v>103</v>
       </c>
       <c r="F58">
-        <v>100029</v>
+        <v>340147</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="H58" t="s">
-        <v>168</v>
+        <v>341</v>
       </c>
       <c r="I58" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="J58">
         <v>2400</v>
@@ -13554,13 +13550,13 @@
         <v>107</v>
       </c>
       <c r="N58" s="2">
-        <v>41747</v>
+        <v>42963</v>
       </c>
       <c r="O58" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="Q58" t="s">
         <v>29</v>
@@ -13574,51 +13570,51 @@
       </c>
       <c r="T58">
         <f ca="1">RAND()</f>
-        <v>0.69840623161616266</v>
+        <v>0.86877920457555069</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>461</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>644</v>
+        <v>476</v>
       </c>
       <c r="C59" t="s">
         <v>412</v>
       </c>
       <c r="D59" t="s">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F59">
-        <v>340028</v>
+        <v>501339</v>
       </c>
       <c r="G59" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="H59" t="s">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="J59">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="L59" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="N59" s="2">
-        <v>40961</v>
+        <v>43154</v>
       </c>
       <c r="O59" t="s">
-        <v>645</v>
+        <v>477</v>
       </c>
       <c r="P59" t="s">
-        <v>646</v>
+        <v>478</v>
       </c>
       <c r="S59" t="e">
         <f>VLOOKUP(B59,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13626,60 +13622,57 @@
       </c>
       <c r="T59">
         <f ca="1">RAND()</f>
-        <v>0.32952219051120757</v>
+        <v>0.56466513354541437</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
       </c>
       <c r="F60">
-        <v>501330</v>
+        <v>281344</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J60">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="L60" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M60" t="s">
         <v>26</v>
       </c>
       <c r="N60" s="2">
-        <v>43767</v>
+        <v>42985</v>
       </c>
       <c r="O60" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="P60" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="Q60" t="s">
-        <v>29</v>
-      </c>
-      <c r="R60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="S60" t="e">
         <f>VLOOKUP(B60,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13687,36 +13680,36 @@
       </c>
       <c r="T60">
         <f ca="1">RAND()</f>
-        <v>0.29177666194397367</v>
+        <v>0.20000819131467018</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>587</v>
+        <v>242</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>166</v>
       </c>
       <c r="E61" t="s">
         <v>103</v>
       </c>
       <c r="F61">
-        <v>520048</v>
+        <v>100029</v>
       </c>
       <c r="G61" t="s">
-        <v>400</v>
+        <v>167</v>
       </c>
       <c r="H61" t="s">
-        <v>401</v>
+        <v>168</v>
       </c>
       <c r="I61" t="s">
-        <v>402</v>
+        <v>169</v>
       </c>
       <c r="J61">
         <v>2400</v>
@@ -13728,15 +13721,18 @@
         <v>107</v>
       </c>
       <c r="N61" s="2">
-        <v>42509</v>
+        <v>41747</v>
       </c>
       <c r="O61" t="s">
-        <v>403</v>
+        <v>170</v>
       </c>
       <c r="P61" t="s">
-        <v>404</v>
+        <v>171</v>
       </c>
       <c r="Q61" t="s">
+        <v>29</v>
+      </c>
+      <c r="R61" t="s">
         <v>29</v>
       </c>
       <c r="S61" t="e">
@@ -13745,36 +13741,36 @@
       </c>
       <c r="T61">
         <f ca="1">RAND()</f>
-        <v>0.605473123242525</v>
+        <v>0.89027081450084167</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>644</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F62">
-        <v>21310</v>
+        <v>340028</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>317</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="J62">
         <v>2406</v>
@@ -13782,20 +13778,14 @@
       <c r="L62" t="s">
         <v>25</v>
       </c>
-      <c r="M62" t="s">
-        <v>26</v>
-      </c>
       <c r="N62" s="2">
-        <v>41250</v>
+        <v>40961</v>
       </c>
       <c r="O62" t="s">
-        <v>27</v>
+        <v>645</v>
       </c>
       <c r="P62" t="s">
-        <v>28</v>
-      </c>
-      <c r="R62" t="s">
-        <v>29</v>
+        <v>646</v>
       </c>
       <c r="S62" t="e">
         <f>VLOOKUP(B62,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13803,36 +13793,36 @@
       </c>
       <c r="T62">
         <f ca="1">RAND()</f>
-        <v>0.77936176084962705</v>
+        <v>0.78009944185996394</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>554</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>708</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>709</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F63">
-        <v>390146</v>
+        <v>501330</v>
       </c>
       <c r="G63" t="s">
-        <v>710</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s">
-        <v>711</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>697</v>
+        <v>91</v>
       </c>
       <c r="J63">
         <v>2406</v>
@@ -13840,14 +13830,23 @@
       <c r="L63" t="s">
         <v>25</v>
       </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
       <c r="N63" s="2">
-        <v>42614</v>
+        <v>43767</v>
       </c>
       <c r="O63" t="s">
-        <v>712</v>
+        <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>713</v>
+        <v>93</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>29</v>
+      </c>
+      <c r="R63" t="s">
+        <v>29</v>
       </c>
       <c r="S63" t="e">
         <f>VLOOKUP(B63,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -13855,36 +13854,36 @@
       </c>
       <c r="T63">
         <f ca="1">RAND()</f>
-        <v>0.65647511255768654</v>
+        <v>0.56140514627206328</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>367</v>
+        <v>587</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="E64" t="s">
         <v>103</v>
       </c>
       <c r="F64">
-        <v>240166</v>
+        <v>520048</v>
       </c>
       <c r="G64" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="H64" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="I64" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="J64">
         <v>2400</v>
@@ -13896,18 +13895,15 @@
         <v>107</v>
       </c>
       <c r="N64" s="2">
-        <v>41324</v>
+        <v>42509</v>
       </c>
       <c r="O64" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
       <c r="P64" t="s">
-        <v>278</v>
+        <v>404</v>
       </c>
       <c r="Q64" t="s">
-        <v>29</v>
-      </c>
-      <c r="R64" t="s">
         <v>29</v>
       </c>
       <c r="S64" t="e">
@@ -13916,54 +13912,54 @@
       </c>
       <c r="T64">
         <f ca="1">RAND()</f>
-        <v>0.27332909410859529</v>
+        <v>0.47964057310644059</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>280111</v>
+        <v>21310</v>
       </c>
       <c r="G65" t="s">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J65">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L65" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M65" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N65" s="2">
-        <v>42768</v>
+        <v>41250</v>
       </c>
       <c r="O65" t="s">
-        <v>296</v>
+        <v>27</v>
       </c>
       <c r="P65" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="R65" t="s">
         <v>29</v>
@@ -13974,60 +13970,51 @@
       </c>
       <c r="T65">
         <f ca="1">RAND()</f>
-        <v>0.35217124985768522</v>
+        <v>0.56104539195738312</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>288</v>
+        <v>554</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>708</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>709</v>
       </c>
       <c r="E66" t="s">
         <v>103</v>
       </c>
       <c r="F66">
-        <v>110113</v>
+        <v>390146</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>710</v>
       </c>
       <c r="H66" t="s">
-        <v>207</v>
+        <v>711</v>
       </c>
       <c r="I66" t="s">
-        <v>188</v>
+        <v>697</v>
       </c>
       <c r="J66">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="L66" t="s">
-        <v>98</v>
-      </c>
-      <c r="M66" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="N66" s="2">
-        <v>43531</v>
+        <v>42614</v>
       </c>
       <c r="O66" t="s">
-        <v>208</v>
+        <v>712</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>38</v>
-      </c>
-      <c r="R66" t="s">
-        <v>38</v>
+        <v>713</v>
       </c>
       <c r="S66" t="e">
         <f>VLOOKUP(B66,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14035,51 +14022,60 @@
       </c>
       <c r="T66">
         <f ca="1">RAND()</f>
-        <v>0.705776253830662</v>
+        <v>0.98489857530226432</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>527</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s">
-        <v>688</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>689</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
         <v>103</v>
       </c>
       <c r="F67">
-        <v>380102</v>
+        <v>240166</v>
       </c>
       <c r="G67" t="s">
-        <v>690</v>
+        <v>275</v>
       </c>
       <c r="H67" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="I67" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="J67">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="L67" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="M67" t="s">
+        <v>107</v>
       </c>
       <c r="N67" s="2">
-        <v>44602</v>
+        <v>41324</v>
       </c>
       <c r="O67" t="s">
-        <v>691</v>
+        <v>277</v>
       </c>
       <c r="P67" t="s">
-        <v>692</v>
+        <v>278</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>29</v>
+      </c>
+      <c r="R67" t="s">
+        <v>29</v>
       </c>
       <c r="S67" t="e">
         <f>VLOOKUP(B67,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14087,36 +14083,36 @@
       </c>
       <c r="T67">
         <f ca="1">RAND()</f>
-        <v>0.99480161077711771</v>
+        <v>0.98514741668027705</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="B68" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="E68" t="s">
         <v>103</v>
       </c>
       <c r="F68">
-        <v>340028</v>
+        <v>280111</v>
       </c>
       <c r="G68" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H68" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="I68" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J68">
         <v>2400</v>
@@ -14128,16 +14124,13 @@
         <v>107</v>
       </c>
       <c r="N68" s="2">
-        <v>41585</v>
+        <v>42768</v>
       </c>
       <c r="O68" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="P68" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="R68" t="s">
         <v>29</v>
@@ -14148,51 +14141,60 @@
       </c>
       <c r="T68">
         <f ca="1">RAND()</f>
-        <v>0.65192605931746084</v>
+        <v>0.26378896859442746</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>621</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
-        <v>746</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>747</v>
+        <v>205</v>
       </c>
       <c r="E69" t="s">
         <v>103</v>
       </c>
       <c r="F69">
-        <v>440228</v>
+        <v>110113</v>
       </c>
       <c r="G69" t="s">
-        <v>748</v>
+        <v>206</v>
       </c>
       <c r="H69" t="s">
-        <v>749</v>
+        <v>207</v>
       </c>
       <c r="I69" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="J69">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="L69" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="M69" t="s">
+        <v>107</v>
       </c>
       <c r="N69" s="2">
-        <v>44488</v>
+        <v>43531</v>
       </c>
       <c r="O69" t="s">
-        <v>750</v>
+        <v>208</v>
       </c>
       <c r="P69" t="s">
-        <v>751</v>
+        <v>209</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>38</v>
+      </c>
+      <c r="R69" t="s">
+        <v>38</v>
       </c>
       <c r="S69" t="e">
         <f>VLOOKUP(B69,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14200,36 +14202,36 @@
       </c>
       <c r="T69">
         <f ca="1">RAND()</f>
-        <v>0.13936120466912882</v>
+        <v>0.72936217465501241</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>207</v>
+        <v>527</v>
       </c>
       <c r="B70" t="s">
-        <v>509</v>
+        <v>688</v>
       </c>
       <c r="C70" t="s">
         <v>412</v>
       </c>
       <c r="D70" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E70" t="s">
         <v>103</v>
       </c>
       <c r="F70">
-        <v>50557</v>
+        <v>380102</v>
       </c>
       <c r="G70" t="s">
-        <v>511</v>
+        <v>690</v>
       </c>
       <c r="H70" t="s">
-        <v>512</v>
+        <v>381</v>
       </c>
       <c r="I70" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="J70">
         <v>2406</v>
@@ -14238,13 +14240,13 @@
         <v>25</v>
       </c>
       <c r="N70" s="2">
-        <v>43202</v>
+        <v>44602</v>
       </c>
       <c r="O70" t="s">
-        <v>513</v>
+        <v>691</v>
       </c>
       <c r="P70" t="s">
-        <v>514</v>
+        <v>692</v>
       </c>
       <c r="S70" t="e">
         <f>VLOOKUP(B70,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14252,54 +14254,57 @@
       </c>
       <c r="T70">
         <f ca="1">RAND()</f>
-        <v>8.1523514463837765E-2</v>
+        <v>0.31081165399942401</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>295</v>
+        <v>439</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="E71" t="s">
         <v>103</v>
       </c>
       <c r="F71">
-        <v>110164</v>
+        <v>340028</v>
       </c>
       <c r="G71" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="H71" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="I71" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="J71">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="L71" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M71" t="s">
         <v>107</v>
       </c>
       <c r="N71" s="2">
-        <v>43418</v>
+        <v>41585</v>
       </c>
       <c r="O71" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>319</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>29</v>
       </c>
       <c r="R71" t="s">
         <v>29</v>
@@ -14310,51 +14315,51 @@
       </c>
       <c r="T71">
         <f ca="1">RAND()</f>
-        <v>0.2530343782015213</v>
+        <v>0.7428907670240239</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>4</v>
+        <v>621</v>
       </c>
       <c r="B72" t="s">
-        <v>411</v>
+        <v>746</v>
       </c>
       <c r="C72" t="s">
         <v>412</v>
       </c>
       <c r="D72" t="s">
-        <v>413</v>
+        <v>747</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F72">
-        <v>41331</v>
+        <v>440228</v>
       </c>
       <c r="G72" t="s">
-        <v>414</v>
+        <v>748</v>
       </c>
       <c r="H72" t="s">
-        <v>415</v>
+        <v>749</v>
       </c>
       <c r="I72" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="J72">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="L72" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="N72" s="2">
-        <v>42894</v>
+        <v>44488</v>
       </c>
       <c r="O72" t="s">
-        <v>417</v>
+        <v>750</v>
       </c>
       <c r="P72" t="s">
-        <v>418</v>
+        <v>751</v>
       </c>
       <c r="S72" t="e">
         <f>VLOOKUP(B72,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14362,36 +14367,36 @@
       </c>
       <c r="T72">
         <f ca="1">RAND()</f>
-        <v>0.27840739335638653</v>
+        <v>0.29521929490158694</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>510</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F73">
-        <v>381304</v>
+        <v>50557</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>511</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>512</v>
       </c>
       <c r="I73" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J73">
         <v>2406</v>
@@ -14399,20 +14404,14 @@
       <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="M73" t="s">
-        <v>26</v>
-      </c>
       <c r="N73" s="2">
-        <v>41731</v>
+        <v>43202</v>
       </c>
       <c r="O73" t="s">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="P73" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="S73" t="e">
         <f>VLOOKUP(B73,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14420,57 +14419,57 @@
       </c>
       <c r="T73">
         <f ca="1">RAND()</f>
-        <v>0.90942849508173595</v>
+        <v>0.38398535960230717</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="E74" t="s">
         <v>103</v>
       </c>
       <c r="F74">
-        <v>10024</v>
+        <v>110164</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="H74" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="I74" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="J74">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="L74" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M74" t="s">
         <v>107</v>
       </c>
       <c r="N74" s="2">
-        <v>42083</v>
+        <v>43418</v>
       </c>
       <c r="O74" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="P74" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="R74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S74" t="e">
         <f>VLOOKUP(B74,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14478,51 +14477,51 @@
       </c>
       <c r="T74">
         <f ca="1">RAND()</f>
-        <v>0.61705125678342732</v>
+        <v>0.60919883141093945</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>714</v>
+        <v>411</v>
       </c>
       <c r="C75" t="s">
         <v>412</v>
       </c>
       <c r="D75" t="s">
-        <v>709</v>
+        <v>413</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F75">
-        <v>390146</v>
+        <v>41331</v>
       </c>
       <c r="G75" t="s">
-        <v>710</v>
+        <v>414</v>
       </c>
       <c r="H75" t="s">
-        <v>711</v>
+        <v>415</v>
       </c>
       <c r="I75" t="s">
-        <v>697</v>
+        <v>416</v>
       </c>
       <c r="J75">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="L75" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="N75" s="2">
-        <v>42614</v>
+        <v>42894</v>
       </c>
       <c r="O75" t="s">
-        <v>712</v>
+        <v>417</v>
       </c>
       <c r="P75" t="s">
-        <v>715</v>
+        <v>418</v>
       </c>
       <c r="S75" t="e">
         <f>VLOOKUP(B75,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14530,60 +14529,57 @@
       </c>
       <c r="T75">
         <f ca="1">RAND()</f>
-        <v>0.37200999290428938</v>
+        <v>0.6192499867350707</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F76">
-        <v>160045</v>
+        <v>381304</v>
       </c>
       <c r="G76" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J76">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="L76" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M76" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N76" s="2">
-        <v>42740</v>
+        <v>41731</v>
       </c>
       <c r="O76" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="Q76" t="s">
-        <v>29</v>
-      </c>
-      <c r="R76" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="S76" t="e">
         <f>VLOOKUP(B76,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14591,51 +14587,57 @@
       </c>
       <c r="T76">
         <f ca="1">RAND()</f>
-        <v>0.45825804444169405</v>
+        <v>2.4252420441000067E-2</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>447</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>626</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>627</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
         <v>103</v>
       </c>
       <c r="F77">
-        <v>330307</v>
+        <v>10024</v>
       </c>
       <c r="G77" t="s">
-        <v>628</v>
+        <v>112</v>
       </c>
       <c r="H77" t="s">
-        <v>629</v>
+        <v>113</v>
       </c>
       <c r="I77" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="J77">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="L77" t="s">
-        <v>52</v>
+        <v>98</v>
+      </c>
+      <c r="M77" t="s">
+        <v>107</v>
       </c>
       <c r="N77" s="2">
-        <v>42774</v>
+        <v>42083</v>
       </c>
       <c r="O77" t="s">
-        <v>630</v>
+        <v>114</v>
       </c>
       <c r="P77" t="s">
-        <v>631</v>
+        <v>115</v>
+      </c>
+      <c r="R77" t="s">
+        <v>38</v>
       </c>
       <c r="S77" t="e">
         <f>VLOOKUP(B77,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14643,51 +14645,51 @@
       </c>
       <c r="T77">
         <f ca="1">RAND()</f>
-        <v>0.37763193874049839</v>
+        <v>0.70865647240279528</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>121</v>
+        <v>555</v>
       </c>
       <c r="B78" t="s">
-        <v>470</v>
+        <v>714</v>
       </c>
       <c r="C78" t="s">
         <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>709</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F78">
-        <v>501328</v>
+        <v>390146</v>
       </c>
       <c r="G78" t="s">
-        <v>472</v>
+        <v>710</v>
       </c>
       <c r="H78" t="s">
-        <v>473</v>
+        <v>711</v>
       </c>
       <c r="I78" t="s">
-        <v>91</v>
+        <v>697</v>
       </c>
       <c r="J78">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="N78" s="2">
-        <v>43713</v>
+        <v>42614</v>
       </c>
       <c r="O78" t="s">
-        <v>474</v>
+        <v>712</v>
       </c>
       <c r="P78" t="s">
-        <v>475</v>
+        <v>715</v>
       </c>
       <c r="S78" t="e">
         <f>VLOOKUP(B78,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14695,51 +14697,60 @@
       </c>
       <c r="T78">
         <f ca="1">RAND()</f>
-        <v>7.3474396186065105E-2</v>
+        <v>0.91847546468823626</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B79" t="s">
-        <v>561</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>556</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
         <v>103</v>
       </c>
       <c r="F79">
-        <v>110036</v>
+        <v>160045</v>
       </c>
       <c r="G79" t="s">
-        <v>557</v>
+        <v>231</v>
       </c>
       <c r="H79" t="s">
-        <v>558</v>
+        <v>232</v>
       </c>
       <c r="I79" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="J79">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L79" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="M79" t="s">
+        <v>107</v>
       </c>
       <c r="N79" s="2">
-        <v>43637</v>
+        <v>42740</v>
       </c>
       <c r="O79" t="s">
-        <v>562</v>
+        <v>233</v>
       </c>
       <c r="P79" t="s">
-        <v>563</v>
+        <v>234</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>29</v>
+      </c>
+      <c r="R79" t="s">
+        <v>29</v>
       </c>
       <c r="S79" t="e">
         <f>VLOOKUP(B79,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14747,51 +14758,51 @@
       </c>
       <c r="T79">
         <f ca="1">RAND()</f>
-        <v>6.7985469928924736E-2</v>
+        <v>0.21836080482617337</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>522</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>680</v>
+        <v>470</v>
       </c>
       <c r="C80" t="s">
         <v>412</v>
       </c>
       <c r="D80" t="s">
-        <v>681</v>
+        <v>471</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F80">
-        <v>380061</v>
+        <v>501328</v>
       </c>
       <c r="G80" t="s">
-        <v>682</v>
+        <v>472</v>
       </c>
       <c r="H80" t="s">
-        <v>683</v>
+        <v>473</v>
       </c>
       <c r="I80" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J80">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="L80" t="s">
-        <v>426</v>
+        <v>25</v>
       </c>
       <c r="N80" s="2">
-        <v>43299</v>
+        <v>43713</v>
       </c>
       <c r="O80" t="s">
-        <v>684</v>
+        <v>474</v>
       </c>
       <c r="P80" t="s">
-        <v>685</v>
+        <v>475</v>
       </c>
       <c r="S80" t="e">
         <f>VLOOKUP(B80,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14799,36 +14810,36 @@
       </c>
       <c r="T80">
         <f ca="1">RAND()</f>
-        <v>0.73722549046929675</v>
+        <v>0.56007556241823064</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s">
-        <v>419</v>
+        <v>561</v>
       </c>
       <c r="C81" t="s">
         <v>412</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>556</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F81">
-        <v>51308</v>
+        <v>110036</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>557</v>
       </c>
       <c r="H81" t="s">
-        <v>34</v>
+        <v>558</v>
       </c>
       <c r="I81" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="J81">
         <v>2406</v>
@@ -14837,13 +14848,13 @@
         <v>25</v>
       </c>
       <c r="N81" s="2">
-        <v>41920</v>
+        <v>43637</v>
       </c>
       <c r="O81" t="s">
-        <v>420</v>
+        <v>562</v>
       </c>
       <c r="P81" t="s">
-        <v>421</v>
+        <v>563</v>
       </c>
       <c r="S81" t="e">
         <f>VLOOKUP(B81,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14851,60 +14862,51 @@
       </c>
       <c r="T81">
         <f ca="1">RAND()</f>
-        <v>0.87160993825900379</v>
+        <v>0.60335336526564642</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>419</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F82">
-        <v>50125</v>
+        <v>51308</v>
       </c>
       <c r="G82" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="I82" t="s">
         <v>35</v>
       </c>
       <c r="J82">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="L82" t="s">
-        <v>98</v>
-      </c>
-      <c r="M82" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="N82" s="2">
-        <v>44398</v>
+        <v>41920</v>
       </c>
       <c r="O82" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="P82" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>38</v>
-      </c>
-      <c r="R82" t="s">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="S82" t="e">
         <f>VLOOKUP(B82,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14912,36 +14914,36 @@
       </c>
       <c r="T82">
         <f ca="1">RAND()</f>
-        <v>8.4465143817761601E-2</v>
+        <v>0.9468585721782955</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
         <v>103</v>
       </c>
       <c r="F83">
-        <v>280111</v>
+        <v>50125</v>
       </c>
       <c r="G83" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="H83" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="I83" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J83">
         <v>2409</v>
@@ -14953,19 +14955,19 @@
         <v>107</v>
       </c>
       <c r="N83" s="2">
-        <v>42768</v>
+        <v>44398</v>
       </c>
       <c r="O83" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="P83" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="Q83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="R83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="S83" t="e">
         <f>VLOOKUP(B83,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -14973,51 +14975,60 @@
       </c>
       <c r="T83">
         <f ca="1">RAND()</f>
-        <v>0.65784469054834349</v>
+        <v>0.55943212929654196</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>571</v>
+        <v>387</v>
       </c>
       <c r="B84" t="s">
-        <v>724</v>
+        <v>298</v>
       </c>
       <c r="C84" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>725</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
         <v>103</v>
       </c>
       <c r="F84">
-        <v>420078</v>
+        <v>280111</v>
       </c>
       <c r="G84" t="s">
-        <v>726</v>
+        <v>294</v>
       </c>
       <c r="H84" t="s">
-        <v>482</v>
+        <v>295</v>
       </c>
       <c r="I84" t="s">
-        <v>727</v>
+        <v>61</v>
       </c>
       <c r="J84">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="L84" t="s">
-        <v>728</v>
+        <v>98</v>
+      </c>
+      <c r="M84" t="s">
+        <v>107</v>
       </c>
       <c r="N84" s="2">
-        <v>43860</v>
+        <v>42768</v>
       </c>
       <c r="O84" t="s">
-        <v>729</v>
+        <v>296</v>
       </c>
       <c r="P84" t="s">
-        <v>730</v>
+        <v>299</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>29</v>
+      </c>
+      <c r="R84" t="s">
+        <v>29</v>
       </c>
       <c r="S84" t="e">
         <f>VLOOKUP(B84,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15025,51 +15036,51 @@
       </c>
       <c r="T84">
         <f ca="1">RAND()</f>
-        <v>0.66915231616267579</v>
+        <v>0.92367072459584898</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>234</v>
+        <v>571</v>
       </c>
       <c r="B85" t="s">
-        <v>517</v>
+        <v>724</v>
       </c>
       <c r="C85" t="s">
         <v>412</v>
       </c>
       <c r="D85" t="s">
-        <v>518</v>
+        <v>725</v>
       </c>
       <c r="E85" t="s">
         <v>103</v>
       </c>
       <c r="F85">
-        <v>90008</v>
+        <v>420078</v>
       </c>
       <c r="G85" t="s">
-        <v>519</v>
+        <v>726</v>
       </c>
       <c r="H85" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="I85" t="s">
-        <v>521</v>
+        <v>727</v>
       </c>
       <c r="J85">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="L85" t="s">
-        <v>25</v>
+        <v>728</v>
       </c>
       <c r="N85" s="2">
-        <v>43154</v>
+        <v>43860</v>
       </c>
       <c r="O85" t="s">
-        <v>522</v>
+        <v>729</v>
       </c>
       <c r="P85" t="s">
-        <v>523</v>
+        <v>730</v>
       </c>
       <c r="S85" t="e">
         <f>VLOOKUP(B85,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15077,36 +15088,36 @@
       </c>
       <c r="T85">
         <f ca="1">RAND()</f>
-        <v>0.17286682425668676</v>
+        <v>0.66444613072320968</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="B86" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="C86" t="s">
         <v>412</v>
       </c>
       <c r="D86" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="E86" t="s">
         <v>103</v>
       </c>
       <c r="F86">
-        <v>50426</v>
+        <v>90008</v>
       </c>
       <c r="G86" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="H86" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="I86" t="s">
-        <v>35</v>
+        <v>521</v>
       </c>
       <c r="J86">
         <v>2406</v>
@@ -15115,13 +15126,13 @@
         <v>25</v>
       </c>
       <c r="N86" s="2">
-        <v>42311</v>
+        <v>43154</v>
       </c>
       <c r="O86" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="P86" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="S86" t="e">
         <f>VLOOKUP(B86,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15129,51 +15140,51 @@
       </c>
       <c r="T86">
         <f ca="1">RAND()</f>
-        <v>8.4573184723384598E-2</v>
+        <v>0.94917062047731982</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>467</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>659</v>
+        <v>503</v>
       </c>
       <c r="C87" t="s">
         <v>412</v>
       </c>
       <c r="D87" t="s">
-        <v>654</v>
+        <v>504</v>
       </c>
       <c r="E87" t="s">
         <v>103</v>
       </c>
       <c r="F87">
-        <v>340039</v>
+        <v>50426</v>
       </c>
       <c r="G87" t="s">
-        <v>655</v>
+        <v>505</v>
       </c>
       <c r="H87" t="s">
-        <v>656</v>
+        <v>506</v>
       </c>
       <c r="I87" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J87">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="L87" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N87" s="2">
-        <v>41865</v>
+        <v>42311</v>
       </c>
       <c r="O87" t="s">
-        <v>657</v>
+        <v>507</v>
       </c>
       <c r="P87" t="s">
-        <v>660</v>
+        <v>508</v>
       </c>
       <c r="S87" t="e">
         <f>VLOOKUP(B87,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15181,60 +15192,51 @@
       </c>
       <c r="T87">
         <f ca="1">RAND()</f>
-        <v>0.38197145310769165</v>
+        <v>0.60364973718089421</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>659</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D88" t="s">
-        <v>379</v>
+        <v>654</v>
       </c>
       <c r="E88" t="s">
         <v>103</v>
       </c>
       <c r="F88">
-        <v>440065</v>
+        <v>340039</v>
       </c>
       <c r="G88" t="s">
-        <v>380</v>
+        <v>655</v>
       </c>
       <c r="H88" t="s">
-        <v>381</v>
+        <v>656</v>
       </c>
       <c r="I88" t="s">
-        <v>382</v>
+        <v>68</v>
       </c>
       <c r="J88">
-        <v>2400</v>
+        <v>2407</v>
       </c>
       <c r="L88" t="s">
-        <v>44</v>
-      </c>
-      <c r="M88" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="N88" s="2">
-        <v>43292</v>
+        <v>41865</v>
       </c>
       <c r="O88" t="s">
-        <v>383</v>
+        <v>657</v>
       </c>
       <c r="P88" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>29</v>
-      </c>
-      <c r="R88" t="s">
-        <v>29</v>
+        <v>660</v>
       </c>
       <c r="S88" t="e">
         <f>VLOOKUP(B88,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15242,36 +15244,36 @@
       </c>
       <c r="T88">
         <f ca="1">RAND()</f>
-        <v>0.96876145990682594</v>
+        <v>0.7587756910255028</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="E89" t="s">
         <v>103</v>
       </c>
       <c r="F89">
-        <v>340151</v>
+        <v>440065</v>
       </c>
       <c r="G89" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="H89" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="I89" t="s">
-        <v>68</v>
+        <v>382</v>
       </c>
       <c r="J89">
         <v>2400</v>
@@ -15283,13 +15285,13 @@
         <v>107</v>
       </c>
       <c r="N89" s="2">
-        <v>43684</v>
+        <v>43292</v>
       </c>
       <c r="O89" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="P89" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="Q89" t="s">
         <v>29</v>
@@ -15303,51 +15305,60 @@
       </c>
       <c r="T89">
         <f ca="1">RAND()</f>
-        <v>0.44318720081128027</v>
+        <v>0.15023976348340518</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B90" t="s">
-        <v>661</v>
+        <v>344</v>
       </c>
       <c r="C90" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>662</v>
+        <v>345</v>
       </c>
       <c r="E90" t="s">
         <v>103</v>
       </c>
       <c r="F90">
-        <v>340091</v>
+        <v>340151</v>
       </c>
       <c r="G90" t="s">
-        <v>663</v>
+        <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>664</v>
+        <v>347</v>
       </c>
       <c r="I90" t="s">
         <v>68</v>
       </c>
       <c r="J90">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="L90" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="M90" t="s">
+        <v>107</v>
       </c>
       <c r="N90" s="2">
-        <v>44373</v>
+        <v>43684</v>
       </c>
       <c r="O90" t="s">
-        <v>665</v>
+        <v>348</v>
       </c>
       <c r="P90" t="s">
-        <v>666</v>
+        <v>349</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>29</v>
+      </c>
+      <c r="R90" t="s">
+        <v>29</v>
       </c>
       <c r="S90" t="e">
         <f>VLOOKUP(B90,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15355,60 +15366,51 @@
       </c>
       <c r="T90">
         <f ca="1">RAND()</f>
-        <v>0.22410164914772612</v>
+        <v>0.96180022133971632</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>661</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>662</v>
       </c>
       <c r="E91" t="s">
         <v>103</v>
       </c>
       <c r="F91">
-        <v>110051</v>
+        <v>340091</v>
       </c>
       <c r="G91" t="s">
-        <v>200</v>
+        <v>663</v>
       </c>
       <c r="H91" t="s">
-        <v>201</v>
+        <v>664</v>
       </c>
       <c r="I91" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="J91">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L91" t="s">
-        <v>44</v>
-      </c>
-      <c r="M91" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="N91" s="2">
-        <v>43489</v>
+        <v>44373</v>
       </c>
       <c r="O91" t="s">
-        <v>202</v>
+        <v>665</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>29</v>
-      </c>
-      <c r="R91" t="s">
-        <v>29</v>
+        <v>666</v>
       </c>
       <c r="S91" t="e">
         <f>VLOOKUP(B91,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15416,60 +15418,60 @@
       </c>
       <c r="T91">
         <f ca="1">RAND()</f>
-        <v>0.26519718047937813</v>
+        <v>0.6651331464549648</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E92" t="s">
         <v>103</v>
       </c>
       <c r="F92">
-        <v>170068</v>
+        <v>110051</v>
       </c>
       <c r="G92" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="H92" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="I92" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="J92">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="L92" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M92" t="s">
         <v>107</v>
       </c>
       <c r="N92" s="2">
-        <v>44175</v>
+        <v>43489</v>
       </c>
       <c r="O92" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="Q92" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="R92" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="S92" t="e">
         <f>VLOOKUP(B92,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15477,51 +15479,60 @@
       </c>
       <c r="T92">
         <f ca="1">RAND()</f>
-        <v>0.93340462366985244</v>
+        <v>0.6791952844010104</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>548</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s">
-        <v>700</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>701</v>
+        <v>242</v>
       </c>
       <c r="E93" t="s">
         <v>103</v>
       </c>
       <c r="F93">
-        <v>390113</v>
+        <v>170068</v>
       </c>
       <c r="G93" t="s">
-        <v>702</v>
+        <v>243</v>
       </c>
       <c r="H93" t="s">
-        <v>703</v>
+        <v>244</v>
       </c>
       <c r="I93" t="s">
-        <v>697</v>
+        <v>245</v>
       </c>
       <c r="J93">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L93" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="M93" t="s">
+        <v>107</v>
       </c>
       <c r="N93" s="2">
-        <v>41264</v>
+        <v>44175</v>
       </c>
       <c r="O93" t="s">
-        <v>704</v>
+        <v>246</v>
       </c>
       <c r="P93" t="s">
-        <v>705</v>
+        <v>247</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>197</v>
+      </c>
+      <c r="R93" t="s">
+        <v>197</v>
       </c>
       <c r="S93" t="e">
         <f>VLOOKUP(B93,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15529,51 +15540,51 @@
       </c>
       <c r="T93">
         <f ca="1">RAND()</f>
-        <v>0.60384111744084856</v>
+        <v>0.92932931888773418</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B94" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C94" t="s">
         <v>412</v>
       </c>
       <c r="D94" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="E94" t="s">
         <v>103</v>
       </c>
       <c r="F94">
-        <v>390110</v>
+        <v>390113</v>
       </c>
       <c r="G94" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="H94" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="I94" t="s">
         <v>697</v>
       </c>
       <c r="J94">
-        <v>2409</v>
+        <v>2400</v>
       </c>
       <c r="L94" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N94" s="2">
-        <v>42328</v>
+        <v>41264</v>
       </c>
       <c r="O94" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="P94" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="S94" t="e">
         <f>VLOOKUP(B94,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15581,51 +15592,51 @@
       </c>
       <c r="T94">
         <f ca="1">RAND()</f>
-        <v>0.77341091184698918</v>
+        <v>0.73185820553838077</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
-        <v>744</v>
+        <v>693</v>
       </c>
       <c r="C95" t="s">
         <v>412</v>
       </c>
       <c r="D95" t="s">
-        <v>739</v>
+        <v>694</v>
       </c>
       <c r="E95" t="s">
         <v>103</v>
       </c>
       <c r="F95">
-        <v>440104</v>
+        <v>390110</v>
       </c>
       <c r="G95" t="s">
-        <v>740</v>
+        <v>695</v>
       </c>
       <c r="H95" t="s">
-        <v>741</v>
+        <v>696</v>
       </c>
       <c r="I95" t="s">
-        <v>382</v>
+        <v>697</v>
       </c>
       <c r="J95">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="L95" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="N95" s="2">
-        <v>42389</v>
+        <v>42328</v>
       </c>
       <c r="O95" t="s">
-        <v>742</v>
+        <v>698</v>
       </c>
       <c r="P95" t="s">
-        <v>745</v>
+        <v>699</v>
       </c>
       <c r="S95" t="e">
         <f>VLOOKUP(B95,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15633,36 +15644,36 @@
       </c>
       <c r="T95">
         <f ca="1">RAND()</f>
-        <v>0.61144909689015925</v>
+        <v>0.79364395892024819</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="B96" t="s">
-        <v>437</v>
+        <v>744</v>
       </c>
       <c r="C96" t="s">
         <v>412</v>
       </c>
       <c r="D96" t="s">
-        <v>438</v>
+        <v>739</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F96">
-        <v>171323</v>
+        <v>440104</v>
       </c>
       <c r="G96" t="s">
-        <v>439</v>
+        <v>740</v>
       </c>
       <c r="H96" t="s">
-        <v>440</v>
+        <v>741</v>
       </c>
       <c r="I96" t="s">
-        <v>245</v>
+        <v>382</v>
       </c>
       <c r="J96">
         <v>2407</v>
@@ -15671,13 +15682,13 @@
         <v>69</v>
       </c>
       <c r="N96" s="2">
-        <v>43699</v>
+        <v>42389</v>
       </c>
       <c r="O96" t="s">
-        <v>441</v>
+        <v>742</v>
       </c>
       <c r="P96" t="s">
-        <v>442</v>
+        <v>745</v>
       </c>
       <c r="S96" t="e">
         <f>VLOOKUP(B96,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15685,51 +15696,51 @@
       </c>
       <c r="T96">
         <f ca="1">RAND()</f>
-        <v>0.11413792323472127</v>
+        <v>0.11576103237494961</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="C97" t="s">
         <v>412</v>
       </c>
       <c r="D97" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="E97" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F97">
-        <v>50084</v>
+        <v>171323</v>
       </c>
       <c r="G97" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="H97" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="I97" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="J97">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L97" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="N97" s="2">
-        <v>40891</v>
+        <v>43699</v>
       </c>
       <c r="O97" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="P97" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="S97" t="e">
         <f>VLOOKUP(B97,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15737,36 +15748,36 @@
       </c>
       <c r="T97">
         <f ca="1">RAND()</f>
-        <v>0.3658810070122015</v>
+        <v>0.85686549132195777</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>674</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>778</v>
+        <v>497</v>
       </c>
       <c r="C98" t="s">
         <v>412</v>
       </c>
       <c r="D98" t="s">
-        <v>779</v>
+        <v>498</v>
       </c>
       <c r="E98" t="s">
-        <v>780</v>
+        <v>103</v>
       </c>
       <c r="F98">
-        <v>454132</v>
+        <v>50084</v>
       </c>
       <c r="G98" t="s">
-        <v>781</v>
+        <v>499</v>
       </c>
       <c r="H98" t="s">
-        <v>782</v>
+        <v>500</v>
       </c>
       <c r="I98" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="J98">
         <v>2406</v>
@@ -15775,13 +15786,13 @@
         <v>25</v>
       </c>
       <c r="N98" s="2">
-        <v>43256</v>
+        <v>40891</v>
       </c>
       <c r="O98" t="s">
-        <v>783</v>
+        <v>501</v>
       </c>
       <c r="P98" t="s">
-        <v>784</v>
+        <v>502</v>
       </c>
       <c r="S98" t="e">
         <f>VLOOKUP(B98,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15789,51 +15800,51 @@
       </c>
       <c r="T98">
         <f ca="1">RAND()</f>
-        <v>0.84037115998046108</v>
+        <v>0.41274927665251493</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>503</v>
+        <v>674</v>
       </c>
       <c r="B99" t="s">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="C99" t="s">
         <v>412</v>
       </c>
       <c r="D99" t="s">
-        <v>668</v>
+        <v>779</v>
       </c>
       <c r="E99" t="s">
-        <v>103</v>
+        <v>780</v>
       </c>
       <c r="F99">
-        <v>360098</v>
+        <v>454132</v>
       </c>
       <c r="G99" t="s">
-        <v>669</v>
+        <v>781</v>
       </c>
       <c r="H99" t="s">
-        <v>670</v>
+        <v>782</v>
       </c>
       <c r="I99" t="s">
-        <v>671</v>
+        <v>84</v>
       </c>
       <c r="J99">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="L99" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="N99" s="2">
-        <v>41339</v>
+        <v>43256</v>
       </c>
       <c r="O99" t="s">
-        <v>672</v>
+        <v>783</v>
       </c>
       <c r="P99" t="s">
-        <v>673</v>
+        <v>784</v>
       </c>
       <c r="S99" t="e">
         <f>VLOOKUP(B99,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15841,57 +15852,51 @@
       </c>
       <c r="T99">
         <f ca="1">RAND()</f>
-        <v>0.78587718654953831</v>
+        <v>0.32792678752591142</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>262</v>
+        <v>503</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>667</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
+        <v>668</v>
       </c>
       <c r="E100" t="s">
         <v>103</v>
       </c>
       <c r="F100">
-        <v>100156</v>
+        <v>360098</v>
       </c>
       <c r="G100" t="s">
-        <v>180</v>
+        <v>669</v>
       </c>
       <c r="H100" t="s">
-        <v>181</v>
+        <v>670</v>
       </c>
       <c r="I100" t="s">
-        <v>169</v>
+        <v>671</v>
       </c>
       <c r="J100">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="L100" t="s">
-        <v>25</v>
-      </c>
-      <c r="M100" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N100" s="2">
-        <v>41859</v>
+        <v>41339</v>
       </c>
       <c r="O100" t="s">
-        <v>182</v>
+        <v>672</v>
       </c>
       <c r="P100" t="s">
-        <v>183</v>
-      </c>
-      <c r="R100" t="s">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="S100" t="e">
         <f>VLOOKUP(B100,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15899,36 +15904,36 @@
       </c>
       <c r="T100">
         <f ca="1">RAND()</f>
-        <v>0.36404579871745135</v>
+        <v>0.37646991119186657</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>570</v>
+        <v>262</v>
       </c>
       <c r="B101" t="s">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>386</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
         <v>103</v>
       </c>
       <c r="F101">
-        <v>450324</v>
+        <v>100156</v>
       </c>
       <c r="G101" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>388</v>
+        <v>181</v>
       </c>
       <c r="I101" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="J101">
         <v>2406</v>
@@ -15940,19 +15945,16 @@
         <v>107</v>
       </c>
       <c r="N101" s="2">
-        <v>44691</v>
+        <v>41859</v>
       </c>
       <c r="O101" t="s">
-        <v>389</v>
+        <v>182</v>
       </c>
       <c r="P101" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="R101" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="S101" t="e">
         <f>VLOOKUP(B101,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -15960,60 +15962,60 @@
       </c>
       <c r="T101">
         <f ca="1">RAND()</f>
-        <v>0.11772334521136363</v>
+        <v>1.95525455154687E-2</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>329</v>
+        <v>570</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="E102" t="s">
         <v>103</v>
       </c>
       <c r="F102">
-        <v>180038</v>
+        <v>450324</v>
       </c>
       <c r="G102" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="H102" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J102">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L102" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M102" t="s">
         <v>107</v>
       </c>
       <c r="N102" s="2">
-        <v>40634</v>
+        <v>44691</v>
       </c>
       <c r="O102" t="s">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>390</v>
       </c>
       <c r="Q102" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="R102" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S102" t="e">
         <f>VLOOKUP(B102,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -16021,57 +16023,60 @@
       </c>
       <c r="T102">
         <f ca="1">RAND()</f>
-        <v>0.18463455515867366</v>
+        <v>0.67511347463137972</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F103">
-        <v>501339</v>
+        <v>180038</v>
       </c>
       <c r="G103" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="H103" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="I103" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="J103">
-        <v>2409</v>
+        <v>2400</v>
       </c>
       <c r="L103" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="M103" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="N103" s="2">
-        <v>43642</v>
+        <v>40634</v>
       </c>
       <c r="O103" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="P103" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="Q103" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="R103" t="s">
+        <v>38</v>
       </c>
       <c r="S103" t="e">
         <f>VLOOKUP(B103,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -16079,57 +16084,57 @@
       </c>
       <c r="T103">
         <f ca="1">RAND()</f>
-        <v>0.94064779019907407</v>
+        <v>0.93202067684336642</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
       </c>
       <c r="F104">
-        <v>341308</v>
+        <v>501339</v>
       </c>
       <c r="G104" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="H104" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="I104" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="J104">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="L104" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="M104" t="s">
         <v>26</v>
       </c>
       <c r="N104" s="2">
-        <v>41985</v>
+        <v>43642</v>
       </c>
       <c r="O104" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P104" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="Q104" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S104" t="e">
         <f>VLOOKUP(B104,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -16137,51 +16142,57 @@
       </c>
       <c r="T104">
         <f ca="1">RAND()</f>
-        <v>8.4640120399501639E-2</v>
+        <v>0.96890755750751423</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>562</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>722</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>717</v>
+        <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F105">
-        <v>390164</v>
+        <v>341308</v>
       </c>
       <c r="G105" t="s">
-        <v>718</v>
+        <v>66</v>
       </c>
       <c r="H105" t="s">
-        <v>719</v>
+        <v>67</v>
       </c>
       <c r="I105" t="s">
-        <v>697</v>
+        <v>68</v>
       </c>
       <c r="J105">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L105" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="M105" t="s">
+        <v>26</v>
       </c>
       <c r="N105" s="2">
-        <v>43476</v>
+        <v>41985</v>
       </c>
       <c r="O105" t="s">
-        <v>720</v>
+        <v>70</v>
       </c>
       <c r="P105" t="s">
-        <v>723</v>
+        <v>71</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>38</v>
       </c>
       <c r="S105" t="e">
         <f>VLOOKUP(B105,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -16189,36 +16200,36 @@
       </c>
       <c r="T105">
         <f ca="1">RAND()</f>
-        <v>0.95359939988316522</v>
+        <v>0.5615146088732893</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>208</v>
+        <v>562</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
+        <v>722</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>717</v>
       </c>
       <c r="E106" t="s">
         <v>103</v>
       </c>
       <c r="F106">
-        <v>50590</v>
+        <v>390164</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>718</v>
       </c>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>719</v>
       </c>
       <c r="I106" t="s">
-        <v>35</v>
+        <v>697</v>
       </c>
       <c r="J106">
         <v>2406</v>
@@ -16226,20 +16237,14 @@
       <c r="L106" t="s">
         <v>25</v>
       </c>
-      <c r="M106" t="s">
-        <v>107</v>
-      </c>
       <c r="N106" s="2">
-        <v>40564</v>
+        <v>43476</v>
       </c>
       <c r="O106" t="s">
-        <v>144</v>
+        <v>720</v>
       </c>
       <c r="P106" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>79</v>
+        <v>723</v>
       </c>
       <c r="S106" t="e">
         <f>VLOOKUP(B106,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -16247,60 +16252,57 @@
       </c>
       <c r="T106">
         <f ca="1">RAND()</f>
-        <v>0.18920761608927106</v>
+        <v>0.62159256370465232</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>590</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>406</v>
+        <v>141</v>
       </c>
       <c r="E107" t="s">
         <v>103</v>
       </c>
       <c r="F107">
-        <v>520051</v>
+        <v>50590</v>
       </c>
       <c r="G107" t="s">
-        <v>407</v>
+        <v>142</v>
       </c>
       <c r="H107" t="s">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="I107" t="s">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="J107">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="L107" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M107" t="s">
         <v>107</v>
       </c>
       <c r="N107" s="2">
-        <v>43818</v>
+        <v>40564</v>
       </c>
       <c r="O107" t="s">
-        <v>409</v>
+        <v>144</v>
       </c>
       <c r="P107" t="s">
-        <v>410</v>
+        <v>145</v>
       </c>
       <c r="Q107" t="s">
-        <v>29</v>
-      </c>
-      <c r="R107" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="S107" t="e">
         <f>VLOOKUP(B107,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -16308,51 +16310,60 @@
       </c>
       <c r="T107">
         <f ca="1">RAND()</f>
-        <v>0.80709508259261009</v>
+        <v>0.68207797663196923</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>11</v>
+        <v>590</v>
       </c>
       <c r="B108" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F108">
-        <v>61327</v>
+        <v>520051</v>
       </c>
       <c r="G108" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H108" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>402</v>
       </c>
       <c r="J108">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="L108" t="s">
-        <v>426</v>
+        <v>44</v>
+      </c>
+      <c r="M108" t="s">
+        <v>107</v>
       </c>
       <c r="N108" s="2">
-        <v>43398</v>
+        <v>43818</v>
       </c>
       <c r="O108" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="P108" t="s">
-        <v>428</v>
+        <v>410</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>29</v>
+      </c>
+      <c r="R108" t="s">
+        <v>29</v>
       </c>
       <c r="S108" t="e">
         <f>VLOOKUP(B108,[1]Sheet1!$B$1:$T$16,19,FALSE)</f>
@@ -16360,7 +16371,7 @@
       </c>
       <c r="T108">
         <f ca="1">RAND()</f>
-        <v>0.56878482038830969</v>
+        <v>0.70256378260297347</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
@@ -16412,7 +16423,7 @@
       </c>
       <c r="T109">
         <f ca="1">RAND()</f>
-        <v>0.38783788130513452</v>
+        <v>0.67817553176680945</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -16470,7 +16481,7 @@
       </c>
       <c r="T110">
         <f ca="1">RAND()</f>
-        <v>0.65333521254503457</v>
+        <v>0.38650228840581957</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -16522,7 +16533,7 @@
       </c>
       <c r="T111">
         <f ca="1">RAND()</f>
-        <v>0.82174004245623022</v>
+        <v>0.92202952880372213</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -16580,7 +16591,7 @@
       </c>
       <c r="T112">
         <f ca="1">RAND()</f>
-        <v>0.12749318839948409</v>
+        <v>0.53516139665052154</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
@@ -16641,7 +16652,7 @@
       </c>
       <c r="T113">
         <f ca="1">RAND()</f>
-        <v>0.51137170202669158</v>
+        <v>0.87055080785463057</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
@@ -16693,7 +16704,7 @@
       </c>
       <c r="T114">
         <f ca="1">RAND()</f>
-        <v>0.25613695076345866</v>
+        <v>0.25106471667251884</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
@@ -16745,7 +16756,7 @@
       </c>
       <c r="T115">
         <f ca="1">RAND()</f>
-        <v>0.98240748460358029</v>
+        <v>0.82878983943391005</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -16806,7 +16817,7 @@
       </c>
       <c r="T116">
         <f ca="1">RAND()</f>
-        <v>0.57436541053698231</v>
+        <v>0.98447117309873766</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
@@ -16864,7 +16875,7 @@
       </c>
       <c r="T117">
         <f ca="1">RAND()</f>
-        <v>0.41145966248792221</v>
+        <v>0.52566444696711734</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
@@ -16925,7 +16936,7 @@
       </c>
       <c r="T118">
         <f ca="1">RAND()</f>
-        <v>0.81635817196815286</v>
+        <v>1.9112632794319961E-2</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
@@ -16977,7 +16988,7 @@
       </c>
       <c r="T119">
         <f ca="1">RAND()</f>
-        <v>0.2498506354800063</v>
+        <v>0.30417795878410225</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -17029,7 +17040,7 @@
       </c>
       <c r="T120">
         <f ca="1">RAND()</f>
-        <v>0.64272001382053323</v>
+        <v>0.41074098521240632</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
@@ -17087,7 +17098,7 @@
       </c>
       <c r="T121">
         <f ca="1">RAND()</f>
-        <v>0.98536889741571465</v>
+        <v>7.0375244541229565E-2</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
@@ -17145,7 +17156,7 @@
       </c>
       <c r="T122">
         <f ca="1">RAND()</f>
-        <v>0.10013181854883346</v>
+        <v>1.3555762334695354E-2</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
@@ -17203,7 +17214,7 @@
       </c>
       <c r="T123">
         <f ca="1">RAND()</f>
-        <v>0.16016931039215554</v>
+        <v>0.56237337780457108</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
@@ -17255,7 +17266,7 @@
       </c>
       <c r="T124">
         <f ca="1">RAND()</f>
-        <v>0.397664142582979</v>
+        <v>0.47013577577298316</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
@@ -17316,7 +17327,7 @@
       </c>
       <c r="T125">
         <f ca="1">RAND()</f>
-        <v>0.23078841512830062</v>
+        <v>0.3555023862621467</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
@@ -17377,7 +17388,7 @@
       </c>
       <c r="T126">
         <f ca="1">RAND()</f>
-        <v>0.3416779488681142</v>
+        <v>0.79852339555349439</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
@@ -17429,7 +17440,7 @@
       </c>
       <c r="T127">
         <f ca="1">RAND()</f>
-        <v>0.34847513401835606</v>
+        <v>0.14529411896191269</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
@@ -17487,7 +17498,7 @@
       </c>
       <c r="T128">
         <f ca="1">RAND()</f>
-        <v>0.90830330447596763</v>
+        <v>0.80944360298444173</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
@@ -17548,7 +17559,7 @@
       </c>
       <c r="T129">
         <f ca="1">RAND()</f>
-        <v>0.45463060527596744</v>
+        <v>2.079311585988175E-3</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
@@ -17600,7 +17611,7 @@
       </c>
       <c r="T130">
         <f ca="1">RAND()</f>
-        <v>0.20279392024941489</v>
+        <v>0.60050954318213745</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
@@ -17661,7 +17672,7 @@
       </c>
       <c r="T131">
         <f ca="1">RAND()</f>
-        <v>0.66308854712266019</v>
+        <v>0.34782736063665221</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
@@ -17722,7 +17733,7 @@
       </c>
       <c r="T132">
         <f ca="1">RAND()</f>
-        <v>0.23048662530321373</v>
+        <v>0.39750312371516083</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
@@ -17774,7 +17785,7 @@
       </c>
       <c r="T133">
         <f ca="1">RAND()</f>
-        <v>0.82731880847813222</v>
+        <v>0.56368133747875127</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
@@ -17826,7 +17837,7 @@
       </c>
       <c r="T134">
         <f ca="1">RAND()</f>
-        <v>0.44136939670058606</v>
+        <v>0.41683404786280798</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
@@ -17878,7 +17889,7 @@
       </c>
       <c r="T135">
         <f ca="1">RAND()</f>
-        <v>0.47921067929509598</v>
+        <v>0.94887379078284495</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
@@ -17930,10 +17941,11 @@
       </c>
       <c r="T136">
         <f ca="1">RAND()</f>
-        <v>4.0794117454722278E-2</v>
+        <v>0.98643053767091304</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L1:M136" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U136">
     <sortCondition ref="S1:S136"/>
   </sortState>
